--- a/biology/Zoologie/Crocidura/Crocidura.xlsx
+++ b/biology/Zoologie/Crocidura/Crocidura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crocidura est un genre rassemblant des insectivores de la famille des Soricidae. Ce genre de musaraignes à dents blanches[1] comprend de très nombreuses espèces appelées musaraignes ou crocidures.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crocidura est un genre rassemblant des insectivores de la famille des Soricidae. Ce genre de musaraignes à dents blanches comprend de très nombreuses espèces appelées musaraignes ou crocidures.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon [réf. nécessaire] :
 Crocidura aleksandrisi Vesmanis, 1977
@@ -525,7 +539,7 @@
 Crocidura attila Dollman, 1915
 Crocidura baileyi Osgood, 1936
 Crocidura baluensis Thomas, 1898
-Crocidura batesi Dollman, 1915 - Crocidure de Bates[1]
+Crocidura batesi Dollman, 1915 - Crocidure de Bates
 Crocidura beatus Miller, 1910
 Crocidura beccarii Dobson, 1887
 Crocidura bottegi Thomas, 1898
@@ -533,7 +547,7 @@
 Crocidura brunnea Jentink, 1888
 Crocidura buettikoferi Jentink, 1888
 Crocidura caliginea Hollister, 1916
-Crocidura canariensis Hutterer, Lopez-Jurado et Vogel, 1987 - Crocidure des Canaries ou Crocidure de la Grande Canarie[1]
+Crocidura canariensis Hutterer, Lopez-Jurado et Vogel, 1987 - Crocidure des Canaries ou Crocidure de la Grande Canarie
 Crocidura caspica Thomas, 1907
 Crocidura cinderella Thomas, 1911
 Crocidura congobelgica Hollister, 1916
@@ -543,7 +557,7 @@
 Crocidura denti Dollman, 1915
 Crocidura desperata Hutterer, Jenkins et Verheyen, 1991
 Crocidura dhofarensis Hutterer et Harrison, 1988
-Crocidura dolichura Peters, 1876 - Crocidure à longue queue[1]
+Crocidura dolichura Peters, 1876 - Crocidure à longue queue
 Crocidura douceti Heim de Balsac, 1958
 Crocidura dsinezumi (Temminck, 1842)
 Crocidura eisentrauti Heim de Balsac, 1957
@@ -551,8 +565,8 @@
 Crocidura elongata Miller et Hollister, 1921
 Crocidura erica Dollman, 1915
 Crocidura fischeri Pagenstecher, 1885
-Crocidura flavescens (I. Geoffroy Saint-Hilaire, 1827) - Crocidure géante[1]
-Crocidura floweri Dollman, 1915 - Musaraigne de Flower[1]
+Crocidura flavescens (I. Geoffroy Saint-Hilaire, 1827) - Crocidure géante
+Crocidura floweri Dollman, 1915 - Musaraigne de Flower
 Crocidura foetida Peters, 1870
 Crocidura foxi Dollman, 1915
 Crocidura fuliginosa (Blyth, 1855)
@@ -561,7 +575,7 @@
 Crocidura fuscomurina (Heuglin, 1865)
 Crocidura glassi Heim de Balsac, 1966
 Crocidura gmelini (Pallas, 1811)
-Crocidura goliath Thomas, 1906 - Musaraigne géante[1]
+Crocidura goliath Thomas, 1906 - Musaraigne géante
 Crocidura gracilipes Peters, 1870
 Crocidura grandiceps Hutterer, 1983
 Crocidura grandis Miller, 1911
@@ -588,7 +602,7 @@
 Crocidura latona Hollister, 1916
 Crocidura lea Miller et Hollister, 1921
 Crocidura lepidura Lyon, 1908
-Crocidura leucodon (Hermann, 1780) - Musaraigne bicolore, musaraigne leucode ou musaraigne des champs[1]
+Crocidura leucodon (Hermann, 1780) - Musaraigne bicolore, musaraigne leucode ou musaraigne des champs
 Crocidura levicula Miller et Hollister, 1921
 Crocidura littoralis Heller, 1910
 Crocidura longipes Hutterer et Happold, 1983
@@ -646,38 +660,38 @@
 Crocidura religiosa (I. Geoffroy Saint-Hilaire, 1827)
 Crocidura rhoditis Miller et Hollister, 1921
 Crocidura roosevelti (Heller, 1910)
-Crocidura russula (Hermann, 1780) - Crocidure aranivore, musaraigne musette, etc.[1]
+Crocidura russula (Hermann, 1780) - Crocidure aranivore, musaraigne musette, etc.
 Crocidura selina Dollman, 1915
 Crocidura serezkyensis Laptev, 1929
 Crocidura shantungensis Miller, 1901
 Crocidura sibirica Dukelsky, 1930
-Crocidura sicula Miller, 1900 - Crocidure de Sicile[1]
+Crocidura sicula Miller, 1900 - Crocidure de Sicile
 Crocidura silacea Thomas, 1895
-Crocidura smithii Thomas, 1895 - Crocidure du désert[1]
+Crocidura smithii Thomas, 1895 - Crocidure du désert
 Crocidura somalica Thomas, 1895
 Crocidura stenocephala Heim de Balsac, 1979
-Crocidura suaveolens (Pallas, 1811) - Crocidure des jardins ou musaraigne des jardins[1]
+Crocidura suaveolens (Pallas, 1811) - Crocidure des jardins ou musaraigne des jardins
 Crocidura susiana Redding et Lay, 1978
 Crocidura tanakae Kuroda, 1938
 Crocidura tansaniana Hutterer, 1986
 Crocidura tarella Dollman, 1915
-Crocidura tarfayensis Vesmanis et Vesmanis, 1980 - Musaraigne des Tarfaya[1]
+Crocidura tarfayensis Vesmanis et Vesmanis, 1980 - Musaraigne des Tarfaya
 Crocidura telfordi Hutterer, 1986
 Crocidura tenuis (Müller, 1840)
-Crocidura thalia Dippenaar, 1980 - Musaraigne d’Éthiopie [1]
+Crocidura thalia Dippenaar, 1980 - Musaraigne d’Éthiopie 
 Crocidura theresae Heim de Balsac, 1968
 Crocidura thomensis (Bocage, 1887)
 Crocidura trichura Dobson in Thomas, 1889
 Crocidura turba Dollman, 1910
 Crocidura ultima Dollman, 1915
-Crocidura usambarae Dippenaar, 1980 - Musaraigne de Tanzanie[1]
-Crocidura viaria (I. Geoffroy Saint-Hilaire, 1834) - Crocidure de Bolivar [1]
+Crocidura usambarae Dippenaar, 1980 - Musaraigne de Tanzanie
+Crocidura viaria (I. Geoffroy Saint-Hilaire, 1834) - Crocidure de Bolivar 
 Crocidura virgata Sanderson, 1940
 Crocidura voi Osgood, 1910
 Crocidura vorax G. Allen, 1923
 Crocidura vosmaeri Jentink, 1888
 Crocidura watasei Kuroda, 1924
-Crocidura whitakeri de Winton, 1898 - Musaraigne de Whitaker[1]
+Crocidura whitakeri de Winton, 1898 - Musaraigne de Whitaker
 Crocidura wimmeri Heim de Balsac et Aellen, 1958
 Crocidura wuchihensis Wang, 1966
 Crocidura xantippe Osgood, 1910
@@ -685,7 +699,7 @@
 Crocidura zaphiri Dollman, 1915
 Crocidura zarudnyi Ognev, 1928
 Crocidura zimmeri Osgood, 1936
-Crocidura zimmermanni Wettstein, 1953 - Crocidure de Zimmermann[1]</t>
+Crocidura zimmermanni Wettstein, 1953 - Crocidure de Zimmermann</t>
         </is>
       </c>
     </row>
